--- a/repartition_temps.xlsx
+++ b/repartition_temps.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>theme</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>javaFX</t>
+  </si>
+  <si>
+    <t>realisation page1 controller et java</t>
+  </si>
+  <si>
+    <t>realisation page2 controller et ja va</t>
+  </si>
+  <si>
+    <t>maj bdd - optimisation et fix</t>
   </si>
 </sst>
 </file>
@@ -393,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +505,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
